--- a/FresherTraining_ExitTest_3185060/Excel/TestData.xlsx
+++ b/FresherTraining_ExitTest_3185060/Excel/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harshitaarora\eclipse-workspace\FresherTraining_ExitTest_3185060\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harshitaarora\git\FlipkartAutomation\FresherTraining_ExitTest_3185060\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4BD158-D64A-4171-A264-12849C88F258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A8E2C5-7713-4A6A-882B-9A48B5FAAA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{5DCE8CA9-DFF8-4B64-B12E-7AD9D0028769}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Grocery_Test" sheetId="3" r:id="rId3"/>
     <sheet name="Fashion_Test" sheetId="9" r:id="rId4"/>
     <sheet name="Electronics_Test" sheetId="10" r:id="rId5"/>
-    <sheet name="ToysMore_Test" sheetId="11" r:id="rId6"/>
+    <sheet name="Cart_Test" sheetId="11" r:id="rId6"/>
     <sheet name="Travel_Test" sheetId="4" r:id="rId7"/>
     <sheet name="MyProfile_Test" sheetId="5" r:id="rId8"/>
     <sheet name="Advertise_Test" sheetId="6" r:id="rId9"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Electronics Best Offers Store Online - Buy Electronics Best Offers Online at Best Price in India | Flipkart.com</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Shopping Cart | Flipkart.com</t>
   </si>
 </sst>
 </file>
@@ -1118,16 +1124,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39CCB12-B2FB-483A-B2AF-93DE7D3CB52C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,6 +1146,17 @@
       </c>
       <c r="C1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/FresherTraining_ExitTest_3185060/Excel/TestData.xlsx
+++ b/FresherTraining_ExitTest_3185060/Excel/TestData.xlsx
@@ -8,22 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harshitaarora\git\FlipkartAutomation\FresherTraining_ExitTest_3185060\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A8E2C5-7713-4A6A-882B-9A48B5FAAA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1CD1D7-3E77-4912-852A-F33CA63B2615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{5DCE8CA9-DFF8-4B64-B12E-7AD9D0028769}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{5DCE8CA9-DFF8-4B64-B12E-7AD9D0028769}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test" sheetId="1" r:id="rId1"/>
-    <sheet name="SellerOption_Test" sheetId="2" r:id="rId2"/>
-    <sheet name="Grocery_Test" sheetId="3" r:id="rId3"/>
+    <sheet name="Grocery_Test" sheetId="3" r:id="rId2"/>
+    <sheet name="Home_Test" sheetId="12" r:id="rId3"/>
     <sheet name="Fashion_Test" sheetId="9" r:id="rId4"/>
     <sheet name="Electronics_Test" sheetId="10" r:id="rId5"/>
-    <sheet name="Cart_Test" sheetId="11" r:id="rId6"/>
-    <sheet name="Travel_Test" sheetId="4" r:id="rId7"/>
-    <sheet name="MyProfile_Test" sheetId="5" r:id="rId8"/>
-    <sheet name="Advertise_Test" sheetId="6" r:id="rId9"/>
-    <sheet name="GiftCards_Test" sheetId="7" r:id="rId10"/>
-    <sheet name="Search_Test" sheetId="8" r:id="rId11"/>
+    <sheet name="Travel_Test" sheetId="4" r:id="rId6"/>
+    <sheet name="MyProfile_Test" sheetId="5" r:id="rId7"/>
+    <sheet name="Mobile_Test" sheetId="13" r:id="rId8"/>
+    <sheet name="Navigation_Test" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -92,9 +90,6 @@
     <t>BlankPassword</t>
   </si>
   <si>
-    <t>BlankBothFields</t>
-  </si>
-  <si>
     <t>12345</t>
   </si>
   <si>
@@ -179,69 +174,27 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Open MyProfile Option</t>
-  </si>
-  <si>
-    <t>Realme</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Last</t>
   </si>
   <si>
-    <t>Brands</t>
-  </si>
-  <si>
-    <t>The incorrect Brand</t>
-  </si>
-  <si>
-    <t>SearchTheBrand</t>
-  </si>
-  <si>
-    <t>Ocassion Based GiftCards</t>
-  </si>
-  <si>
-    <t>Gift Card1</t>
-  </si>
-  <si>
-    <t>Gift Card2</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
-    <t>Valid Product</t>
-  </si>
-  <si>
-    <t>Invalid Product</t>
-  </si>
-  <si>
     <t>Mobiles</t>
   </si>
   <si>
-    <t>sbdsjmsbdn</t>
-  </si>
-  <si>
     <t>Men's Fashion</t>
   </si>
   <si>
     <t>WomenWestern</t>
   </si>
   <si>
-    <t>WomensEthnic</t>
-  </si>
-  <si>
     <t>Western Wear - Buy Western Wear Online at Low Prices In India | Flipkart.com</t>
   </si>
   <si>
-    <t>KK,Sets,DM,Sarees - Buy KK,Sets,DM,Sarees Online at Low Prices In India | Flipkart.com</t>
-  </si>
-  <si>
     <t>Topwear - Buy Topwear For Men, Women &amp; Kids Online at Best Prices In India | Flipkart.com</t>
   </si>
   <si>
@@ -254,25 +207,46 @@
     <t>Audio</t>
   </si>
   <si>
-    <t>Gaming</t>
-  </si>
-  <si>
-    <t>Gaming - Buy Gaming Online at Best Prices in India</t>
-  </si>
-  <si>
     <t>electronics best offers store online - buy electronics best offers online at best price in india | flipkart.com</t>
   </si>
   <si>
-    <t>Mobile Accessory</t>
-  </si>
-  <si>
-    <t>Electronics Best Offers Store Online - Buy Electronics Best Offers Online at Best Price in India | Flipkart.com</t>
-  </si>
-  <si>
     <t>Cart</t>
   </si>
   <si>
     <t>Shopping Cart | Flipkart.com</t>
+  </si>
+  <si>
+    <t>Atta- Buy Products Online at Best Price in India - All Categories | Flipkart.com</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Kitchen_and_Dining</t>
+  </si>
+  <si>
+    <t>HomeFurnishings</t>
+  </si>
+  <si>
+    <t>India Ka Furniture Studio Store Online - Buy India Ka Furniture Studio Online at Best Price in India | Flipkart.com</t>
+  </si>
+  <si>
+    <t>Kitchen Cookware(???? ???????): Buy Kitchen Utensils Online in India | Free Shipping</t>
+  </si>
+  <si>
+    <t>Mobiles- Buy Products Online at Best Price in India - All Categories | Flipkart.com</t>
+  </si>
+  <si>
+    <t>Search Valid Product</t>
+  </si>
+  <si>
+    <t>Search Invalid Product</t>
+  </si>
+  <si>
+    <t>sdvvvvsdc</t>
+  </si>
+  <si>
+    <t>Not found</t>
   </si>
 </sst>
 </file>
@@ -650,7 +624,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -708,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>12345</v>
@@ -748,17 +722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Rgni@2209" xr:uid="{14EDB336-D074-4E3C-BC10-2E2117B2FC53}"/>
@@ -770,160 +734,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D1024CE-411B-43F0-8BA3-17CF5E3613AC}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662C3A6A-6392-4742-91F5-C74D073274CB}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1545D652-044C-4BD4-B534-F3316042343D}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEA03BD-0A79-4F10-89DE-E3D4727F7534}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="72" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -933,18 +798,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1545D652-044C-4BD4-B534-F3316042343D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE79ED17-C9AF-4CC7-A824-EE2D7590156F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="3" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -952,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -960,10 +824,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -971,10 +835,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -987,10 +851,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD65940-8AEB-499B-89E8-2A515F662F42}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,10 +877,10 @@
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1024,23 +888,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1051,9 +904,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6B3BD7-1962-49D2-BDC1-1FE09DFC5D9F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A4:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1075,10 +930,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1086,34 +941,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1123,48 +956,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39CCB12-B2FB-483A-B2AF-93DE7D3CB52C}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="2" width="33.6328125" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7E5E59-554D-49F8-B39D-9CA584015F75}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1185,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -1196,13 +987,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1210,13 +1001,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1227,12 +1018,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49C4C9C-3E0B-4941-863A-78A8813BD217}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1249,16 +1040,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1266,13 +1057,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -1289,10 +1086,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -1308,11 +1105,8 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1328,27 +1122,10 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
+      <c r="D5" t="s">
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1357,51 +1134,117 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88131A31-D0AD-459F-9A37-DEB1ADA8AEDD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7F9646-9372-44F1-9F36-FC464652A8E3}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF373AA7-C5DD-4FCD-B732-4CA6FE0A7910}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FresherTraining_ExitTest_3185060/Excel/TestData.xlsx
+++ b/FresherTraining_ExitTest_3185060/Excel/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harshitaarora\git\FlipkartAutomation\FresherTraining_ExitTest_3185060\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1CD1D7-3E77-4912-852A-F33CA63B2615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F878351-845E-4859-9754-AE242A9139FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{5DCE8CA9-DFF8-4B64-B12E-7AD9D0028769}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="8" xr2:uid="{5DCE8CA9-DFF8-4B64-B12E-7AD9D0028769}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Test" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Electronics_Test" sheetId="10" r:id="rId5"/>
     <sheet name="Travel_Test" sheetId="4" r:id="rId6"/>
     <sheet name="MyProfile_Test" sheetId="5" r:id="rId7"/>
-    <sheet name="Mobile_Test" sheetId="13" r:id="rId8"/>
-    <sheet name="Navigation_Test" sheetId="14" r:id="rId9"/>
+    <sheet name="Navigation_Test" sheetId="14" r:id="rId8"/>
+    <sheet name="Social_Test" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>Not found</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>FaceBook</t>
+  </si>
+  <si>
+    <t>flipkart - youtube</t>
+  </si>
+  <si>
+    <t>flipkart - home | facebook</t>
   </si>
 </sst>
 </file>
@@ -802,7 +817,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A4:C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -906,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6B3BD7-1962-49D2-BDC1-1FE09DFC5D9F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
@@ -1135,23 +1150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88131A31-D0AD-459F-9A37-DEB1ADA8AEDD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF373AA7-C5DD-4FCD-B732-4CA6FE0A7910}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,4 +1254,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F29E8D-0816-4CF7-A0E3-C6D505540493}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>